--- a/medicine/Mort/Departures_(film,_2008)/Departures_(film,_2008).xlsx
+++ b/medicine/Mort/Departures_(film,_2008)/Departures_(film,_2008).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Departures (おくりびと, Okuribito?) est un film japonais réalisé en 2008 par Yōjirō Takita, avec Masahiro Motoki et Ryōko Hirosue.
 Grand succès au Japon, ce long-métrage, qui évoque un musicien au chômage découvrant le monde des  rites funéraires, remporte en 2009 l'Oscar du meilleur film en langue étrangère lors de la 81e cérémonie des Oscars.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daigo Kobayashi, un violoncelliste dans un orchestre à Tokyo, perd son travail à cause de la dissolution de l'orchestre. Après avoir abandonné son métier de violoncelliste, il décide de vendre son violoncelle qu'il avait récemment acheté 18 millions de yens, puis décide de déménager dans son village natal, Sakata, Yamagata, avec sa femme. Un jour, il tombe sur une petite annonce intitulée « départs assistés » pour l'agence NK (NKエージェント, NK ējento?, en français « agence MEB »). Il va à l'entretien d'embauche en pensant que c'est un travail pour une agence de voyages. Mais lors de l'entretien, il découvre que NK/MEB est l'abréviation pour mise en bière (納棺, nōkan?), et qu'il est là pour assister le « départ ». Le directeur de l'agence NK, décide immédiatement de recruter Daigo après que celui-ci a confirmé qu'il était prêt à travailler dur. Le salaire est de 500 000 yens par mois avec un bonus de 20 000 yens pour l'entretien. N'ayant pas d'autre travail en perspective, Daigo décide d'accepter l'offre. Cependant, quand il rentre chez lui, il est incapable d'avouer à sa femme pour quel genre de métier il a été embauché, et donc explique être employé dans l'industrie des cérémonies occasionnelles.
 Le premier jour de Daigo est difficile : il fait figurant dans une vidéo, où il tient le rôle du cadavre pendant que son chef explique et réalise la procédure de mise en bière. Plus dur encore, il doit pour sa première mission, nettoyer, habiller et appliquer des cosmétiques au corps d'une vieille dame retrouvée deux semaines après sa mort, toute seule chez elle. Bien qu'il ait des nausées à la vue et à l'odeur du corps sans vie, son besoin d'argent le pousse à continuer cette nouvelle carrière. Daigo fait un certain nombre de missions et expérimente la joie et la gratitude de son travail exprimé par les proches qui assistent à la cérémonie. Il commence à ressentir un sentiment de satisfaction dans son travail quand sa femme, Mika, découvre la vidéo d'explication et lui demande d'abandonner ce métier qui la rebute. Daigo refuse cependant d'arrêter, sa femme retourne alors chez ses parents. Même son ami d'enfance, Yamashita, apprenant quel métier Daigo fait, lui demande de trouver un métier qu'il juge plus respectable, puis l'évite à cause de son refus.
@@ -546,10 +560,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Departures
-Titre original  : おくりびと (Okuribito?)[1]
+Titre original  : おくりびと (Okuribito?)
 Réalisation : Yōjirō Takita
 Scénario : Kundō Koyama (en)
 Production : Toshiaki Nakazawa, Ichirō Nobukuni (ja) et Toshihisa Watai
@@ -559,12 +575,12 @@
 Décors : Fumio Ogawa
 Pays d'origine :  Japon
 Langue originale : japonais
-Format : couleur - 1,85:1[1]
+Format : couleur - 1,85:1
 Genre : comédie dramatique
-Durée : 130 minutes[1]
+Durée : 130 minutes
 Dates de sortie :
-Japon : 13 septembre 2008[1]
-France : 15 mars 2009 (festival du film asiatique de Deauville)[2]</t>
+Japon : 13 septembre 2008
+France : 15 mars 2009 (festival du film asiatique de Deauville)</t>
         </is>
       </c>
     </row>
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Masahiro Motoki : Daigo Kobayashi
 Tsutomu Yamazaki : Ikuei Sasaki
@@ -609,7 +627,7 @@
 Ryōsuke Ōtani (en) : le père de Tomeo
 Mitsuyo Hoshino (ja) : Kazuko Kobayashi
 Tarō Suwa : le père en colère à la séance d'embaumement
- Source et légende : version française (VF) sur RS Doublage[3]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -637,9 +655,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inspiré du roman autobiographique d'Aoki Shinmon (es) Coffinman: The Journal of a Buddhist Mortician (納棺夫日記, Nōkanfu Nikki?)[4], le film fut en fabrication durant dix ans. Motoki a étudié l'art de la mise en bière en pratiquant avec un spécialiste, et appris à jouer du violoncelle durant les premières parties du film[5]. Le réalisateur essaya de comprendre les sentiments des familles en deuil[5]. Alors que la mort est sujette à une grande cérémonie, c'est également un tabou au Japon. C'est pourquoi le réalisateur était inquiet de la façon dont les gens percevraient le film et ne s'attendait pas à un tel succès commercial[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inspiré du roman autobiographique d'Aoki Shinmon (es) Coffinman: The Journal of a Buddhist Mortician (納棺夫日記, Nōkanfu Nikki?), le film fut en fabrication durant dix ans. Motoki a étudié l'art de la mise en bière en pratiquant avec un spécialiste, et appris à jouer du violoncelle durant les premières parties du film. Le réalisateur essaya de comprendre les sentiments des familles en deuil. Alors que la mort est sujette à une grande cérémonie, c'est également un tabou au Japon. C'est pourquoi le réalisateur était inquiet de la façon dont les gens percevraient le film et ne s'attendait pas à un tel succès commercial.
 </t>
         </is>
       </c>
@@ -670,17 +690,56 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Internationales
-81e cérémonie des Oscars : Oscar du meilleur film en langue étrangère (Best Foreign Language Film)
+          <t>Internationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>81e cérémonie des Oscars : Oscar du meilleur film en langue étrangère (Best Foreign Language Film)
 3e Asian Film Awards : meilleur acteur pour Masahiro Motoki
 17e Golden Rooster Award : meilleure image, meilleur réalisateur et meilleur acteur pour Masahiro Motoki
 28e Hawaii International Film Festival : prix du public
 32e Montreal World Film Festival : grand prix des Amériques
-20e Palm Springs International Film Festival : Mercedes-Benz Audience Award for Best Narrative Feature
-Nationales
-51e Blue Ribbon Awards : meilleur acteur pour Masahiro Motoki
+20e Palm Springs International Film Festival : Mercedes-Benz Audience Award for Best Narrative Feature</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Departures_(film,_2008)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Departures_(film,_2008)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nationales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>51e Blue Ribbon Awards : meilleur acteur pour Masahiro Motoki
 33e Hochi Film Awards : meilleur film
-32e Japan Academy Prize : meilleur film, meilleur réalisateur pour Yōjirō Takita, meilleur scénario (Kundō Koyama (en)), meilleur acteur pour Masahiro Motoki, meilleur acteur dans un second rôle (Tsutomu Yamazaki), meilleure actrice dans un second rôle (Kimiko Yo), meilleure photographie, meilleur montage, meilleur son, meilleures lumières[6]
+32e Japan Academy Prize : meilleur film, meilleur réalisateur pour Yōjirō Takita, meilleur scénario (Kundō Koyama (en)), meilleur acteur pour Masahiro Motoki, meilleur acteur dans un second rôle (Tsutomu Yamazaki), meilleure actrice dans un second rôle (Kimiko Yo), meilleure photographie, meilleur montage, meilleur son, meilleures lumières
 82e Kinema Junpō Awards : meilleur film, meilleur réalisateur, meilleur scénario et meilleur acteur pour Masahiro Motoki
 63e prix du film Mainichi : meilleur film, meilleur son
 21e Nikkan Sports Film Award : meilleur film et meilleur réalisateur (en)
